--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema4d-Plxnb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema4d-Plxnb2.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>68.50681433333334</v>
+        <v>0.2115286666666667</v>
       </c>
       <c r="H2">
-        <v>205.520443</v>
+        <v>0.634586</v>
       </c>
       <c r="I2">
-        <v>0.9663865053086182</v>
+        <v>0.08153347995807345</v>
       </c>
       <c r="J2">
-        <v>0.9663865053086185</v>
+        <v>0.08153347995807345</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.828998666666665</v>
+        <v>2.325008666666667</v>
       </c>
       <c r="N2">
-        <v>26.486996</v>
+        <v>6.975026</v>
       </c>
       <c r="O2">
-        <v>0.1794455804823882</v>
+        <v>0.05445297772988467</v>
       </c>
       <c r="P2">
-        <v>0.1794455804823882</v>
+        <v>0.05445297772988466</v>
       </c>
       <c r="Q2">
-        <v>604.8465724065809</v>
+        <v>0.4918059832484445</v>
       </c>
       <c r="R2">
-        <v>5443.619151659227</v>
+        <v>4.426253849236</v>
       </c>
       <c r="S2">
-        <v>0.1734137874154515</v>
+        <v>0.004439740768396972</v>
       </c>
       <c r="T2">
-        <v>0.1734137874154515</v>
+        <v>0.00443974076839697</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>68.50681433333334</v>
+        <v>0.2115286666666667</v>
       </c>
       <c r="H3">
-        <v>205.520443</v>
+        <v>0.634586</v>
       </c>
       <c r="I3">
-        <v>0.9663865053086182</v>
+        <v>0.08153347995807345</v>
       </c>
       <c r="J3">
-        <v>0.9663865053086185</v>
+        <v>0.08153347995807345</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>58.014853</v>
       </c>
       <c r="O3">
-        <v>0.3930422677296217</v>
+        <v>0.4529132218878514</v>
       </c>
       <c r="P3">
-        <v>0.3930422677296217</v>
+        <v>0.4529132218878514</v>
       </c>
       <c r="Q3">
-        <v>1324.804254348876</v>
+        <v>4.090601500650889</v>
       </c>
       <c r="R3">
-        <v>11923.23828913988</v>
+        <v>36.815413505858</v>
       </c>
       <c r="S3">
-        <v>0.3798307435498034</v>
+        <v>0.03692759109953961</v>
       </c>
       <c r="T3">
-        <v>0.3798307435498035</v>
+        <v>0.0369275910995396</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>68.50681433333334</v>
+        <v>0.2115286666666667</v>
       </c>
       <c r="H4">
-        <v>205.520443</v>
+        <v>0.634586</v>
       </c>
       <c r="I4">
-        <v>0.9663865053086182</v>
+        <v>0.08153347995807345</v>
       </c>
       <c r="J4">
-        <v>0.9663865053086185</v>
+        <v>0.08153347995807345</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>63.102767</v>
       </c>
       <c r="O4">
-        <v>0.4275121517879902</v>
+        <v>0.492633800382264</v>
       </c>
       <c r="P4">
-        <v>0.4275121517879902</v>
+        <v>0.492633800382264</v>
       </c>
       <c r="Q4">
-        <v>1440.989847596198</v>
+        <v>4.449348055495778</v>
       </c>
       <c r="R4">
-        <v>12968.90862836578</v>
+        <v>40.044132499462</v>
       </c>
       <c r="S4">
-        <v>0.4131419743433634</v>
+        <v>0.04016614809013688</v>
       </c>
       <c r="T4">
-        <v>0.4131419743433635</v>
+        <v>0.04016614809013688</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3.685929</v>
       </c>
       <c r="I5">
-        <v>0.01733176511849816</v>
+        <v>0.4735790235655714</v>
       </c>
       <c r="J5">
-        <v>0.01733176511849817</v>
+        <v>0.4735790235655714</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.828998666666665</v>
+        <v>2.325008666666667</v>
       </c>
       <c r="N5">
-        <v>26.486996</v>
+        <v>6.975026</v>
       </c>
       <c r="O5">
-        <v>0.1794455804823882</v>
+        <v>0.05445297772988467</v>
       </c>
       <c r="P5">
-        <v>0.1794455804823882</v>
+        <v>0.05445297772988466</v>
       </c>
       <c r="Q5">
-        <v>10.84768740880933</v>
+        <v>2.856605623239333</v>
       </c>
       <c r="R5">
-        <v>97.62918667928399</v>
+        <v>25.709450609154</v>
       </c>
       <c r="S5">
-        <v>0.00311010865247331</v>
+        <v>0.02578778802355659</v>
       </c>
       <c r="T5">
-        <v>0.00311010865247331</v>
+        <v>0.02578778802355658</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.685929</v>
       </c>
       <c r="I6">
-        <v>0.01733176511849816</v>
+        <v>0.4735790235655714</v>
       </c>
       <c r="J6">
-        <v>0.01733176511849817</v>
+        <v>0.4735790235655714</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>58.014853</v>
       </c>
       <c r="O6">
-        <v>0.3930422677296217</v>
+        <v>0.4529132218878514</v>
       </c>
       <c r="P6">
-        <v>0.3930422677296217</v>
+        <v>0.4529132218878514</v>
       </c>
       <c r="Q6">
         <v>23.75984767815967</v>
@@ -818,10 +818,10 @@
         <v>213.838629103437</v>
       </c>
       <c r="S6">
-        <v>0.006812116265931673</v>
+        <v>0.2144902013815857</v>
       </c>
       <c r="T6">
-        <v>0.006812116265931674</v>
+        <v>0.2144902013815856</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.685929</v>
       </c>
       <c r="I7">
-        <v>0.01733176511849816</v>
+        <v>0.4735790235655714</v>
       </c>
       <c r="J7">
-        <v>0.01733176511849817</v>
+        <v>0.4735790235655714</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>63.102767</v>
       </c>
       <c r="O7">
-        <v>0.4275121517879902</v>
+        <v>0.492633800382264</v>
       </c>
       <c r="P7">
-        <v>0.4275121517879902</v>
+        <v>0.492633800382264</v>
       </c>
       <c r="Q7">
         <v>25.84359098506033</v>
@@ -880,10 +880,10 @@
         <v>232.592318865543</v>
       </c>
       <c r="S7">
-        <v>0.00740954020009318</v>
+        <v>0.2333010341604292</v>
       </c>
       <c r="T7">
-        <v>0.007409540200093181</v>
+        <v>0.2333010341604292</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>3.462619</v>
       </c>
       <c r="I8">
-        <v>0.01628172957288352</v>
+        <v>0.4448874964763552</v>
       </c>
       <c r="J8">
-        <v>0.01628172957288353</v>
+        <v>0.4448874964763552</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.828998666666665</v>
+        <v>2.325008666666667</v>
       </c>
       <c r="N8">
-        <v>26.486996</v>
+        <v>6.975026</v>
       </c>
       <c r="O8">
-        <v>0.1794455804823882</v>
+        <v>0.05445297772988467</v>
       </c>
       <c r="P8">
-        <v>0.1794455804823882</v>
+        <v>0.05445297772988466</v>
       </c>
       <c r="Q8">
-        <v>10.19048617805822</v>
+        <v>2.683539728121556</v>
       </c>
       <c r="R8">
-        <v>91.714375602524</v>
+        <v>24.151857553094</v>
       </c>
       <c r="S8">
-        <v>0.002921684414463349</v>
+        <v>0.02422544893793112</v>
       </c>
       <c r="T8">
-        <v>0.00292168441446335</v>
+        <v>0.02422544893793111</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>3.462619</v>
       </c>
       <c r="I9">
-        <v>0.01628172957288352</v>
+        <v>0.4448874964763552</v>
       </c>
       <c r="J9">
-        <v>0.01628172957288353</v>
+        <v>0.4448874964763552</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>58.014853</v>
       </c>
       <c r="O9">
-        <v>0.3930422677296217</v>
+        <v>0.4529132218878514</v>
       </c>
       <c r="P9">
-        <v>0.3930422677296217</v>
+        <v>0.4529132218878514</v>
       </c>
       <c r="Q9">
         <v>22.32037025333412</v>
@@ -1004,10 +1004,10 @@
         <v>200.883332280007</v>
       </c>
       <c r="S9">
-        <v>0.006399407913886585</v>
+        <v>0.2014954294067262</v>
       </c>
       <c r="T9">
-        <v>0.006399407913886586</v>
+        <v>0.2014954294067262</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>3.462619</v>
       </c>
       <c r="I10">
-        <v>0.01628172957288352</v>
+        <v>0.4448874964763552</v>
       </c>
       <c r="J10">
-        <v>0.01628172957288353</v>
+        <v>0.4448874964763552</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>63.102767</v>
       </c>
       <c r="O10">
-        <v>0.4275121517879902</v>
+        <v>0.492633800382264</v>
       </c>
       <c r="P10">
-        <v>0.4275121517879902</v>
+        <v>0.492633800382264</v>
       </c>
       <c r="Q10">
         <v>24.27787110741922</v>
@@ -1066,10 +1066,10 @@
         <v>218.500839966773</v>
       </c>
       <c r="S10">
-        <v>0.006960637244533589</v>
+        <v>0.219166618131698</v>
       </c>
       <c r="T10">
-        <v>0.006960637244533591</v>
+        <v>0.2191666181316979</v>
       </c>
     </row>
   </sheetData>
